--- a/df_list_20250217.xlsx
+++ b/df_list_20250217.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="230">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -322,16 +322,401 @@
   </si>
   <si>
     <t>통영시 명정지구 도시재생사업(우리동네살리기) 활성화계획 수립 용역 제안서 평가위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>제4회 천안시 건축위원회 심의 주요결과 공고</t>
+  </si>
+  <si>
+    <t>A119</t>
+  </si>
+  <si>
+    <t>충청도_청양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongyang.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,04,06&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>2025년 농업분야 보조사업 공급업체 선정 제안서 평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>A134</t>
+  </si>
+  <si>
+    <t>전라도_장수군</t>
+  </si>
+  <si>
+    <t>https://eminwon.jangsu.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,04,05,03&amp;yyyy=2017&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>2025년 장수군 직무성과관리(BSC) 연구용역 제안서 평가위원(후보자)...</t>
+  </si>
+  <si>
+    <t>공사수의견적공고-대성방교 보수보강공사 수의계약 안내공고(특허공법)</t>
+  </si>
+  <si>
+    <t>공사수의견적공고-양신2교 보수보강공사 수의계약 안내공고(특허공법)</t>
+  </si>
+  <si>
+    <t>A170</t>
+  </si>
+  <si>
+    <t>경상도_봉화군</t>
+  </si>
+  <si>
+    <t>https://www.bonghwa.go.kr/open.content/ko/news/news/announcement/bonghwa/?p=1</t>
+  </si>
+  <si>
+    <t>베트남 연꽃 공원 조형물 제작설치 제안서 평가위원(후보자) 공개모집</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>2025년 제1회 건축위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>「칠곡군 공공하수처리시설 수질(TMS)측정기기 유지관리 용역」기술제안서 평가위원[후보자] 모집안내</t>
+  </si>
+  <si>
+    <t>특정기술(공법) 선정 관련 정량적 평가(1차) 결과 공고(강서구_남부순환로19길 134 일대 외 2개소 원형관로 보강공사 외 1건)</t>
+  </si>
+  <si>
+    <t>제안서 정성적 평가 결과 공고[부산광역시 지역화폐 운영대행 용역]</t>
+  </si>
+  <si>
+    <t>제안서 기술능력(정성) 평가 결과 공고[제4차 해양산업육성 종합계획 수립 연구용역]</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=2</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>경기도소방학교 사이버교육 콘텐츠 개발사업 등 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>경기도 독립기념관 건립 마스터 플랜 연구 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>충북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 제2차 충청북도 건축물 미술작품 심의 공고</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>경북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=0</t>
+  </si>
+  <si>
+    <t>골관절 건강기능식품 원료개발 연구용역 제안서 평가위원회 예비평가위원 모집공고</t>
+  </si>
+  <si>
+    <t>「제23회 경북과학축전」 행사대행 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>경남고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gyeongnam.go.kr/index.gyeong?menuCd=DOM_000000135003009001&amp;pageLine=90</t>
+  </si>
+  <si>
+    <t>『세계유산 가야고분군 활용 2025년 주민참여형 프로그램 기획 및 운영』제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>2025년 금원산산림자원관리소 숲해설 운영사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.suwon.go.kr/web/saeallOfr/BD_ofrList.do?q_currPage=4</t>
+  </si>
+  <si>
+    <t>A045</t>
+  </si>
+  <si>
+    <t>경기도_구리시</t>
+  </si>
+  <si>
+    <t>https://www.guri.go.kr/www/selectGosiNttList.do?key=387&amp;searchGosiSe=01,04,06&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>2025년 제1회 구리시 조례규칙심의회 위원 및 회의록 공고</t>
+  </si>
+  <si>
+    <t>A049</t>
+  </si>
+  <si>
+    <t>경기도_동두천시</t>
+  </si>
+  <si>
+    <t>https://www.ddc.go.kr/ddc/selectGosiList.do?key=340&amp;not_ancmt_se_code=04&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「동두천시 중장기발전종합계획 수립 용역」 제안서평가위원회 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>경기도_부천시</t>
+  </si>
+  <si>
+    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
+  </si>
+  <si>
+    <t>부천시 버스 노선체계 개편 종합계획 수립 용역 제안서 제출 안내 공고(...</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>경기도_화성시</t>
+  </si>
+  <si>
+    <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
+  </si>
+  <si>
+    <t>2025년 화성시 수질정화시설 운영관리 용역 제안서 평가위원회 평가결과(...</t>
+  </si>
+  <si>
+    <t>「2025년 화성시민대학 강의 제안」 공모</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>소하천(산수천) 정비사업 공법선정위원회 평가결과 공고</t>
+  </si>
+  <si>
+    <t>A083</t>
+  </si>
+  <si>
+    <t>강원도_양구군</t>
+  </si>
+  <si>
+    <t>https://www.yanggu.go.kr/user_sub?gfnc=www&amp;mu_idx=226&amp;pgsize=100</t>
+  </si>
+  <si>
+    <t>[양구군 공고 제2025-243호] 2025년 군정(국민ㆍ공무원)제안 모집 공고</t>
+  </si>
+  <si>
+    <t>A085</t>
+  </si>
+  <si>
+    <t>강원도_영월군</t>
+  </si>
+  <si>
+    <t>https://www.yw.go.kr/www/selectBbsNttList.do?bbsNo=17&amp;key=273&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 제1회 건축전문위원회 구조안전심의 결과 공개새글</t>
+  </si>
+  <si>
+    <t>A086</t>
+  </si>
+  <si>
+    <t>강원도_인제군</t>
+  </si>
+  <si>
+    <t>https://www.inje.go.kr/portal/adm/bulletin/notify</t>
+  </si>
+  <si>
+    <t>인제군『신기술?특허공법』선정을 위한 공법선정 심의위원 재모집 공고</t>
+  </si>
+  <si>
+    <t>A093</t>
+  </si>
+  <si>
+    <t>충청도_제천시</t>
+  </si>
+  <si>
+    <t>https://www.jecheon.go.kr/www/selectBbsNttList.do?bbsNo=18&amp;key=5233&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>『제천 도시재생활성화계획(인정사업 포함) 수립 용역』 제안서 평가위원(후보자) 공개모집 공고새글</t>
+  </si>
+  <si>
+    <t>「2025 아시아 롤러스케이팅 선수권대회 행사대행 용역」 제안서 평가위원(후보자) 모집 공고 알림새글</t>
+  </si>
+  <si>
+    <t>SK하이닉스 신규공장 공업용수 공급사업(3단계) 특정공법(PDF도류벽) 선정을 위한 공법선정위원회 평가위원 명단 및 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=4</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=5</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=6</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=7</t>
+  </si>
+  <si>
+    <t>SK하이닉스 신규공장 공업용수 공급사업(3단계) 특정공법(PDF도류벽) ...</t>
+  </si>
+  <si>
+    <t>A103</t>
+  </si>
+  <si>
+    <t>충청도_옥천군</t>
+  </si>
+  <si>
+    <t>https://www.oc.go.kr/www/selectBbsNttList.do?bbsNo=40&amp;key=236&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>옥천군 건축위원회(구조 심의) 결과[한국석유공업주식회사]새글</t>
+  </si>
+  <si>
+    <t>특허공법 제안서 평가위원 후보자 모집 공고[합성형 라멘교]</t>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/kr/news/0004/0005/0001/?x=1&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>2025년 도시재생 주민제안 공모사업 공고</t>
+  </si>
+  <si>
+    <t>A167</t>
+  </si>
+  <si>
+    <t>경상도_포항시</t>
+  </si>
+  <si>
+    <t>https://www.pohang.go.kr/portal/saeol/gosi/list.do?mid=0202010000&amp;token=1702008153483</t>
+  </si>
+  <si>
+    <t>「국립포항 전문과학관 도시관리계획 결정(변경) 용역」 제안서 평가위원(후보자) 공개 모집 공고</t>
+  </si>
+  <si>
+    <t>「포항국제전시컨벤션센터 CI 개발 용역」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>A176</t>
+  </si>
+  <si>
+    <t>경상도_의성군</t>
+  </si>
+  <si>
+    <t>https://www.usc.go.kr/ko/page.do?mnu_uid=157&amp;pageNo=1</t>
+  </si>
+  <si>
+    <t>「안평면 기초생활거점조성사업(2단계) 용역 제안서 평가...</t>
+  </si>
+  <si>
+    <t>의성군 농촌공간재구조화및재생기본계획수립 용역 제안서 평...</t>
+  </si>
+  <si>
+    <t>https://www.changwon.go.kr/cwportal/10310/10438/10439.web?&amp;cpage=4</t>
+  </si>
+  <si>
+    <t>https://www.gimhae.go.kr/03360/00023/00029.web?&amp;cpage=3</t>
+  </si>
+  <si>
+    <t>『통영시 북신배수분구 하수도중점관리지역 정비사업』 신기술・특허 공법선정 결과 공고</t>
+  </si>
+  <si>
+    <t>https://www.tongyeong.go.kr/00852/00853/00858.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>A202</t>
+  </si>
+  <si>
+    <t>경상도_함안군</t>
+  </si>
+  <si>
+    <t>https://www.haman.go.kr/00960/00962.web?&amp;cpage=2</t>
+  </si>
+  <si>
+    <t>2025년 함안박물관 교육프로그램 운영 용역 제안서 평가위원 후보자 모집공고</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>경상도_함양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.hygn.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,06,07</t>
+  </si>
+  <si>
+    <t>유림 서주이주 하수처리시설 신·이설사업 하수처리공법선정 기술제안서 제출안..</t>
+  </si>
+  <si>
+    <t>「유림 서주이주 하수처리시설 신·이설사업 하수처리공법선정」 기술제안서 평..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -353,6 +738,17 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -383,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -394,6 +790,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,74 +1625,1366 @@
         <v>45705.550358796296</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F39" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F40" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F42" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F43" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F44" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F45" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F46" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F48" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F49" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F51" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F53" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F55" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F57" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F61" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F63" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F65" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F67" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F69" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45706.0</v>
+      </c>
+      <c r="F73" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F75" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F77" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F79" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F81" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F83" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F85" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F86" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F88" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F89" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F90" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F91" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F92" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F93" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F95" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F96" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F97" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45705.0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>45706.05229166667</v>
+      </c>
+    </row>
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
     <row r="101" ht="15.75" customHeight="1"/>
@@ -2188,9 +3888,79 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C31"/>
+    <hyperlink r:id="rId2" ref="C32"/>
+    <hyperlink r:id="rId3" ref="C33"/>
+    <hyperlink r:id="rId4" ref="C34"/>
+    <hyperlink r:id="rId5" ref="C35"/>
+    <hyperlink r:id="rId6" ref="C36"/>
+    <hyperlink r:id="rId7" ref="C37"/>
+    <hyperlink r:id="rId8" ref="C38"/>
+    <hyperlink r:id="rId9" ref="C39"/>
+    <hyperlink r:id="rId10" ref="C40"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C41"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C42"/>
+    <hyperlink r:id="rId13" ref="C43"/>
+    <hyperlink r:id="rId14" ref="C44"/>
+    <hyperlink r:id="rId15" ref="C45"/>
+    <hyperlink r:id="rId16" ref="C46"/>
+    <hyperlink r:id="rId17" location="page=2" ref="C47"/>
+    <hyperlink r:id="rId18" location="page=4" ref="C48"/>
+    <hyperlink r:id="rId19" ref="C49"/>
+    <hyperlink r:id="rId20" ref="C50"/>
+    <hyperlink r:id="rId21" ref="C51"/>
+    <hyperlink r:id="rId22" ref="C52"/>
+    <hyperlink r:id="rId23" ref="C53"/>
+    <hyperlink r:id="rId24" ref="C54"/>
+    <hyperlink r:id="rId25" ref="C55"/>
+    <hyperlink r:id="rId26" ref="C56"/>
+    <hyperlink r:id="rId27" ref="C57"/>
+    <hyperlink r:id="rId28" ref="C58"/>
+    <hyperlink r:id="rId29" ref="C59"/>
+    <hyperlink r:id="rId30" ref="C60"/>
+    <hyperlink r:id="rId31" ref="C61"/>
+    <hyperlink r:id="rId32" ref="C62"/>
+    <hyperlink r:id="rId33" ref="C63"/>
+    <hyperlink r:id="rId34" ref="C64"/>
+    <hyperlink r:id="rId35" ref="C65"/>
+    <hyperlink r:id="rId36" ref="C66"/>
+    <hyperlink r:id="rId37" ref="C67"/>
+    <hyperlink r:id="rId38" ref="C68"/>
+    <hyperlink r:id="rId39" ref="C69"/>
+    <hyperlink r:id="rId40" ref="C70"/>
+    <hyperlink r:id="rId41" ref="C71"/>
+    <hyperlink r:id="rId42" ref="C72"/>
+    <hyperlink r:id="rId43" ref="C73"/>
+    <hyperlink r:id="rId44" ref="C74"/>
+    <hyperlink r:id="rId45" ref="C75"/>
+    <hyperlink r:id="rId46" ref="C76"/>
+    <hyperlink r:id="rId47" ref="C77"/>
+    <hyperlink r:id="rId48" ref="C78"/>
+    <hyperlink r:id="rId49" ref="C79"/>
+    <hyperlink r:id="rId50" ref="C80"/>
+    <hyperlink r:id="rId51" ref="C81"/>
+    <hyperlink r:id="rId52" ref="C82"/>
+    <hyperlink r:id="rId53" ref="C83"/>
+    <hyperlink r:id="rId54" ref="C84"/>
+    <hyperlink r:id="rId55" ref="C85"/>
+    <hyperlink r:id="rId56" ref="C86"/>
+    <hyperlink r:id="rId57" ref="C87"/>
+    <hyperlink r:id="rId58" ref="C88"/>
+    <hyperlink r:id="rId59" ref="C89"/>
+    <hyperlink r:id="rId60" ref="C90"/>
+    <hyperlink r:id="rId61" ref="C91"/>
+    <hyperlink r:id="rId62" ref="C92"/>
+    <hyperlink r:id="rId63" ref="C93"/>
+    <hyperlink r:id="rId64" ref="C94"/>
+    <hyperlink r:id="rId65" ref="C95"/>
+    <hyperlink r:id="rId66" ref="C96"/>
+    <hyperlink r:id="rId67" ref="C97"/>
+    <hyperlink r:id="rId68" ref="C98"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId69"/>
 </worksheet>
 </file>